--- a/pred_ohlcv/54_21/2020-01-16 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ZIL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1236145.9016</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1608558.855</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1599617.105</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1593617.105</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1727894.336822873</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1712894.336822873</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1712994.336822873</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1712708.980322873</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1707379.790322874</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1698049.290322874</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1698149.290322874</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1389576.472209917</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1081003.654109917</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1081103.654109917</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1080913.923509917</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1066824.580809918</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1066824.580809918</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1063824.580809918</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>231066.1583099177</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>592735.8240870442</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>397331.9462870442</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>656523.4610870441</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>646510.4927870441</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>623982.4927870441</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>600172.9697870441</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>600172.9697870441</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>769719.0479870441</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1111312.123687044</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1348062.525887044</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1348062.525887044</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1099001.541087044</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1099001.541087044</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1116142.473087044</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1393514.343087044</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1329275.641987044</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1331145.272787044</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1028302.134987044</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1113511.364787044</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1149899.460487044</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1173708.983487044</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1172722.032487045</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1658002.490987045</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1655002.490987045</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1622126.398087044</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1642935.920087045</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1642935.920087045</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1718542.202787045</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1674963.421787045</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2022953.609587045</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2022953.609587045</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1847299.714687045</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1404115.349887045</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1450244.040887045</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1421663.213887045</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1462208.077587045</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1350433.132987045</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>768046.9980870448</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>768146.9980870448</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>309001.8508870448</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>116882.3112870448</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>116882.3112870448</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>114420.8318870448</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>135510.8318870448</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>138510.8318870448</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>678236.2708870448</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>709526.2708870448</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>419664.2655870448</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>575221.4726870449</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>625411.4726870449</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>625411.4726870449</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>658467.8836870448</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>653975.3748870449</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>651068.0984870449</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>665989.4327870449</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>716256.859087045</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>711188.859087045</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>687998.359087045</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>693201.4590870449</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>711215.3800870449</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>708465.7596870449</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>789192.8123870449</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>957797.019787045</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>957797.019787045</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>960620.457087045</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1016497.772387045</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1094921.302287045</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>914224.228894214</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>914313.228894214</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>914174.3548942141</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>914687.3548942141</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>748925.0930942141</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>773014.0930942141</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>773014.0930942141</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>962187.249394214</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>962276.249394214</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>958081.617894214</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>953580.517494214</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>957219.647894214</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>841219.647894214</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>841219.647894214</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>764590.633994214</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>767430.026494214</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>767520.026494214</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>767260.034094214</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>767260.034094214</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>640853.649494214</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>316357.2582942139</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>527638.1916942139</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>527638.1916942139</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>593689.9821942139</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>593689.9821942139</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>615375.3437942138</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>615375.3437942138</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>3898659.275302322</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>3940897.936702322</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>3331107.043602322</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>3278005.356602322</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>3278005.356602322</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>3278089.844702323</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2951975.556802323</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2362712.324702322</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2362800.324702322</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>2344487.089402323</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ZIL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1236145.9016</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1608558.855</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1599617.105</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1593617.105</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1727894.336822873</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1712894.336822873</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1712994.336822873</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1712708.980322873</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1707379.790322874</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1698049.290322874</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1698149.290322874</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1389576.472209917</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1081003.654109917</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1080913.923509917</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1066824.580809918</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>231066.1583099177</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>592735.8240870442</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>397331.9462870442</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>656523.4610870441</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>646510.4927870441</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>623982.4927870441</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>600172.9697870441</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>600172.9697870441</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>769719.0479870441</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1111312.123687044</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1348062.525887044</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1348062.525887044</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1099001.541087044</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1099001.541087044</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1116142.473087044</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1393514.343087044</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1329275.641987044</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1331145.272787044</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1028302.134987044</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1113511.364787044</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1149899.460487044</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1173708.983487044</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1172722.032487045</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1658002.490987045</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1655002.490987045</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1622126.398087044</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1642935.920087045</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1642935.920087045</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1718542.202787045</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1674963.421787045</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2022953.609587045</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2022953.609587045</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1847299.714687045</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1404115.349887045</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1450244.040887045</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1421663.213887045</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1462208.077587045</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1350433.132987045</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>768046.9980870448</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>768146.9980870448</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>309001.8508870448</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>116882.3112870448</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>116882.3112870448</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>114420.8318870448</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>135510.8318870448</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>138510.8318870448</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>678236.2708870448</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>709526.2708870448</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>419664.2655870448</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>575221.4726870449</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>625411.4726870449</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>625411.4726870449</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>658467.8836870448</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>653975.3748870449</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>651068.0984870449</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>665989.4327870449</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>716256.859087045</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>711188.859087045</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>687998.359087045</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>693201.4590870449</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>711215.3800870449</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>708465.7596870449</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>789192.8123870449</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>957797.019787045</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>957797.019787045</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>960620.457087045</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1016497.772387045</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1094921.302287045</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>914224.228894214</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>914313.228894214</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>914174.3548942141</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>914687.3548942141</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>748925.0930942141</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>773014.0930942141</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>773014.0930942141</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>962187.249394214</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>962276.249394214</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>958081.617894214</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>953580.517494214</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>957219.647894214</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>841219.647894214</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>841219.647894214</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>764590.633994214</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>767430.026494214</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>767520.026494214</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>767260.034094214</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>767260.034094214</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>640853.649494214</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>316357.2582942139</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>527638.1916942139</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>527638.1916942139</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>593689.9821942139</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>593689.9821942139</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>615375.3437942138</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>615375.3437942138</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>4054268.614394214</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>3954180.720394214</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>3954788.828502322</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>3880349.828502322</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>3880349.828502322</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>3880349.828502322</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>3880439.828502322</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>3786623.691402322</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>3786623.691402322</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>3786623.691402322</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>3898659.275302322</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>3940897.936702322</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>3331107.043602322</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>3278005.356602322</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>3278005.356602322</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>3278089.844702323</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2951975.556802323</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2362712.324702322</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2362800.324702322</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
